--- a/MLP_Molecular_Descriptor.xlsx
+++ b/MLP_Molecular_Descriptor.xlsx
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -638,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -660,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -789,7 +789,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
@@ -811,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -934,7 +934,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -981,10 +981,10 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1003,16 +1003,16 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1031,10 +1031,10 @@
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1075,7 +1075,7 @@
         <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
         <v>1</v>
@@ -1097,7 +1097,7 @@
         <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
         <v>1</v>
@@ -1119,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
         <v>1</v>
@@ -1141,7 +1141,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
         <v>1</v>
@@ -1163,7 +1163,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -1176,7 +1176,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>1</v>
@@ -1185,7 +1185,7 @@
         <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
         <v>1</v>
@@ -1207,10 +1207,10 @@
         <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1229,7 +1229,7 @@
         <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
         <v>1</v>
@@ -1314,7 +1314,7 @@
         <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -1380,7 +1380,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -1402,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -1446,7 +1446,7 @@
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
